--- a/Desktop/MIKROPIPET TEMPLATE 2024 - UPM034A & UPM034B dan ACV 5000.xlsx
+++ b/Desktop/MIKROPIPET TEMPLATE 2024 - UPM034A & UPM034B dan ACV 5000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A516A0-408C-4BA4-B562-8E10A64E4B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D578E9-A374-400A-A977-400F942E3B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="custom volume UPM034A" sheetId="1" r:id="rId1"/>
@@ -933,12 +933,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,23 +950,57 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,58 +1011,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1300,8 +1300,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1324,11 +1324,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="75" t="s">
         <v>77</v>
       </c>
       <c r="F1" s="49"/>
@@ -1337,8 +1337,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="60"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1356,11 +1356,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="75" t="s">
         <v>80</v>
       </c>
       <c r="F2" s="49"/>
@@ -1388,11 +1388,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="68">
+      <c r="D3" s="52"/>
+      <c r="E3" s="77">
         <v>5000</v>
       </c>
       <c r="F3" s="49"/>
@@ -1424,12 +1424,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1458,11 +1458,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="63">
+      <c r="D5" s="52"/>
+      <c r="E5" s="79">
         <v>21.3</v>
       </c>
       <c r="F5" s="49"/>
@@ -1490,11 +1490,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63">
+      <c r="D6" s="67"/>
+      <c r="E6" s="79">
         <v>61.9</v>
       </c>
       <c r="F6" s="49"/>
@@ -1526,12 +1526,12 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="81">
         <v>22.210899999999999</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1558,11 +1558,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="49"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1590,11 +1590,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="49"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1622,12 +1622,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="84">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v>1.0033000000000001</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="49"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1651,12 +1651,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1682,10 +1682,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="49"/>
       <c r="E12" s="8">
         <v>5000</v>
@@ -1717,7 +1717,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="49"/>
@@ -1751,10 +1751,10 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="85">
         <v>5009.7</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
         <v>5026.2320100000006</v>
@@ -1786,10 +1786,10 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="85">
         <v>5003.3</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
         <v>5019.8108900000007</v>
@@ -1821,10 +1821,10 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="85">
         <v>5003.8</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
         <v>5020.3125400000008</v>
@@ -1856,10 +1856,10 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="85">
         <v>5001.8</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
         <v>5018.3059400000002</v>
@@ -1891,10 +1891,10 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="85">
         <v>5003.8999999999996</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
         <v>5020.4128700000001</v>
@@ -1926,10 +1926,10 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="85">
         <v>5000.5</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
         <v>5017.0016500000002</v>
@@ -1961,10 +1961,10 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="85">
         <v>5005.3</v>
       </c>
-      <c r="D20" s="57"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
         <v>5021.8174900000004</v>
@@ -1996,10 +1996,10 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="85">
         <v>5004.6000000000004</v>
       </c>
-      <c r="D21" s="57"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
         <v>5021.1151800000007</v>
@@ -2031,10 +2031,10 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="85">
         <v>5009.3999999999996</v>
       </c>
-      <c r="D22" s="57"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
         <v>5025.93102</v>
@@ -2066,10 +2066,10 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="85">
         <v>5007.8</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
         <v>5024.3257400000002</v>
@@ -2101,7 +2101,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="55">
         <f>AVERAGE(C14:D23)</f>
         <v>5005.01</v>
       </c>
@@ -2192,10 +2192,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="49"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2225,7 +2225,7 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="55">
         <f>E24</f>
         <v>5021.5265330000011</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="55">
         <f>STDEV(E14:E23)</f>
         <v>3.0936258347053909</v>
       </c>
@@ -2291,7 +2291,7 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="56">
         <f>ABS((100*(C28-E12)/E12))</f>
         <v>0.43053066000002216</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="56">
         <f>ABS((100*C29/C28))</f>
         <v>6.1607278471496434E-2</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="58">
         <v>0.8</v>
       </c>
       <c r="D32" s="49"/>
@@ -2389,7 +2389,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="59">
         <v>0.3</v>
       </c>
       <c r="D33" s="49"/>
@@ -2421,7 +2421,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="52" t="str">
+      <c r="C34" s="53" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -2481,10 +2481,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="53"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="49"/>
       <c r="E36" s="21">
         <v>2500</v>
@@ -2516,7 +2516,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="49"/>
@@ -2900,7 +2900,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="85">
+      <c r="C48" s="50">
         <f>AVERAGE(C38:D47)</f>
         <v>2505.59</v>
       </c>
@@ -2932,12 +2932,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2963,10 +2963,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="53"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="49"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2996,7 +2996,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="54">
+      <c r="C51" s="55">
         <f>E48</f>
         <v>2513.8584470000001</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="52">
+      <c r="C52" s="53">
         <f>STDEV(E38:E47)</f>
         <v>2.8910402817980909</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="55">
+      <c r="C53" s="56">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>0.55433788000000273</v>
       </c>
@@ -3095,7 +3095,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="86">
+      <c r="C54" s="57">
         <f>ABS((100*C52/C51))</f>
         <v>0.1150040999821694</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="58">
         <v>1.6</v>
       </c>
       <c r="D55" s="49"/>
@@ -3160,7 +3160,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="59">
         <v>0.6</v>
       </c>
       <c r="D56" s="49"/>
@@ -3192,7 +3192,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="52" t="str">
+      <c r="C57" s="53" t="str">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -3252,10 +3252,10 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="53"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="49"/>
       <c r="E59" s="8">
         <v>500</v>
@@ -3287,7 +3287,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="49"/>
@@ -3671,8 +3671,9 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="85">
-        <v>507</v>
+      <c r="C71" s="50">
+        <f>AVERAGE(C61:D70)</f>
+        <v>506.04899999999998</v>
       </c>
       <c r="D71" s="49"/>
       <c r="E71" s="24">
@@ -3733,10 +3734,10 @@
       <c r="A73" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="53"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="49"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3766,7 +3767,7 @@
       <c r="B74" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="54">
+      <c r="C74" s="55">
         <f>E71</f>
         <v>507.71896170000008</v>
       </c>
@@ -3799,7 +3800,7 @@
       <c r="B75" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="54">
+      <c r="C75" s="55">
         <f>STDEV(E61:E70)</f>
         <v>2.0392397126738206</v>
       </c>
@@ -3832,7 +3833,7 @@
       <c r="B76" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C76" s="56">
         <f>ABS((100*(C74-E59)/E59))</f>
         <v>1.543792340000016</v>
       </c>
@@ -3865,7 +3866,7 @@
       <c r="B77" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="55">
+      <c r="C77" s="56">
         <f>ABS((100*C75/C74))</f>
         <v>0.40164734164070126</v>
       </c>
@@ -3898,7 +3899,7 @@
       <c r="B78" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="50">
+      <c r="C78" s="58">
         <v>8</v>
       </c>
       <c r="D78" s="49"/>
@@ -3930,7 +3931,7 @@
       <c r="B79" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="51">
+      <c r="C79" s="59">
         <v>3</v>
       </c>
       <c r="D79" s="49"/>
@@ -3962,7 +3963,7 @@
       <c r="B80" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="52" t="str">
+      <c r="C80" s="53" t="str">
         <f>IF(AND(C77&lt;=C79,C76&lt;=C78),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -4022,15 +4023,15 @@
       <c r="A82" s="10">
         <v>8</v>
       </c>
-      <c r="B82" s="84" t="s">
+      <c r="B82" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="78" t="s">
+      <c r="C82" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="73"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="63"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -4054,11 +4055,11 @@
     </row>
     <row r="83" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
-      <c r="B83" s="82"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="75"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="65"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -4082,11 +4083,11 @@
     </row>
     <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
-      <c r="B84" s="83"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="77"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="68"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -4137,15 +4138,15 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="52" t="s">
+      <c r="A86" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="53"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="49"/>
       <c r="D86" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E86" s="80" t="s">
+      <c r="E86" s="60" t="s">
         <v>48</v>
       </c>
       <c r="F86" s="49"/>
@@ -4171,18 +4172,18 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="72" t="s">
+      <c r="A87" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="79"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="81" t="s">
+      <c r="B87" s="62"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="72" t="s">
+      <c r="E87" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="73"/>
+      <c r="F87" s="63"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -4205,12 +4206,12 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="74"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="75"/>
+      <c r="A88" s="64"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="65"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -4233,12 +4234,12 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="74"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="82"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="75"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="65"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -4261,12 +4262,12 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="74"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="75"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="75"/>
+      <c r="A90" s="64"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="70"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="65"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -4289,12 +4290,12 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="74"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="75"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="75"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="65"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -4317,12 +4318,12 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="74"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="75"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="75"/>
+      <c r="A92" s="64"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="65"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -4345,12 +4346,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="74"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="75"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="65"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -4373,12 +4374,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="74"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="75"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="65"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -4401,12 +4402,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="76"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="77"/>
+      <c r="A95" s="66"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="68"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -29770,85 +29771,6 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C95"/>
-    <mergeCell ref="D87:D95"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="E87:F95"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C82:F84"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
@@ -29858,6 +29780,85 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E87:F95"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C82:F84"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C95"/>
+    <mergeCell ref="D87:D95"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29874,7 +29875,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -29898,11 +29899,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="75" t="s">
         <v>77</v>
       </c>
       <c r="F1" s="49"/>
@@ -29911,8 +29912,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="60"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -29930,11 +29931,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="70"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="49"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -29960,11 +29961,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="68"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="49"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -29994,12 +29995,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -30028,11 +30029,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="63"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="49"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -30058,11 +30059,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="49"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -30092,9 +30093,9 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="49"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -30122,11 +30123,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="49"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -30154,11 +30155,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="49"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -30186,12 +30187,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="58" t="str">
+      <c r="C10" s="84" t="str">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v/>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="49"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -30215,12 +30216,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -30246,10 +30247,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="49"/>
       <c r="E12" s="31"/>
       <c r="F12" s="9"/>
@@ -30279,7 +30280,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="49"/>
@@ -30313,8 +30314,8 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="15" t="e">
         <f>C14*C10</f>
         <v>#VALUE!</v>
@@ -30346,8 +30347,8 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="15" t="e">
         <f>C15*C10</f>
         <v>#VALUE!</v>
@@ -30379,8 +30380,8 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="15" t="e">
         <f>C16*C10</f>
         <v>#VALUE!</v>
@@ -30412,8 +30413,8 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="15" t="e">
         <f>C17*C10</f>
         <v>#VALUE!</v>
@@ -30445,8 +30446,8 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
       <c r="E18" s="15" t="e">
         <f>C18*C10</f>
         <v>#VALUE!</v>
@@ -30478,8 +30479,8 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="15" t="e">
         <f>C19*C10</f>
         <v>#VALUE!</v>
@@ -30511,8 +30512,8 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="15" t="e">
         <f>C20*C10</f>
         <v>#VALUE!</v>
@@ -30544,8 +30545,8 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="15" t="e">
         <f>C21*C10</f>
         <v>#VALUE!</v>
@@ -30577,8 +30578,8 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="15" t="e">
         <f>C22*C10</f>
         <v>#VALUE!</v>
@@ -30610,8 +30611,8 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="15" t="e">
         <f>C23*C10</f>
         <v>#VALUE!</v>
@@ -30643,7 +30644,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="54" t="e">
+      <c r="C24" s="55" t="e">
         <f>AVERAGE(C14:D23)</f>
         <v>#DIV/0!</v>
       </c>
@@ -30734,10 +30735,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="49"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -30767,7 +30768,7 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="54" t="e">
+      <c r="C28" s="55" t="e">
         <f>E24</f>
         <v>#VALUE!</v>
       </c>
@@ -30800,7 +30801,7 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="54" t="e">
+      <c r="C29" s="55" t="e">
         <f>STDEV(E14:E23)</f>
         <v>#VALUE!</v>
       </c>
@@ -30833,7 +30834,7 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="55" t="e">
+      <c r="C30" s="56" t="e">
         <f>ABS((100*(C28-E12)/E12))</f>
         <v>#VALUE!</v>
       </c>
@@ -30866,7 +30867,7 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="55" t="e">
+      <c r="C31" s="56" t="e">
         <f>ABS((100*C29/C28))</f>
         <v>#VALUE!</v>
       </c>
@@ -30899,7 +30900,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="58">
         <v>0.8</v>
       </c>
       <c r="D32" s="49"/>
@@ -30931,7 +30932,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="59">
         <v>0.3</v>
       </c>
       <c r="D33" s="49"/>
@@ -30963,7 +30964,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="52" t="e">
+      <c r="C34" s="53" t="e">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>#VALUE!</v>
       </c>
@@ -31023,10 +31024,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="53"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="49"/>
       <c r="E36" s="32"/>
       <c r="F36" s="2"/>
@@ -31056,7 +31057,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="49"/>
@@ -31420,7 +31421,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="85" t="e">
+      <c r="C48" s="50" t="e">
         <f>AVERAGE(C38:D47)</f>
         <v>#DIV/0!</v>
       </c>
@@ -31452,12 +31453,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -31483,10 +31484,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="53"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="49"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -31516,7 +31517,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="54" t="e">
+      <c r="C51" s="55" t="e">
         <f>E48</f>
         <v>#VALUE!</v>
       </c>
@@ -31549,7 +31550,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="52" t="e">
+      <c r="C52" s="53" t="e">
         <f>STDEV(E38:E47)</f>
         <v>#VALUE!</v>
       </c>
@@ -31582,7 +31583,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="55" t="e">
+      <c r="C53" s="56" t="e">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>#VALUE!</v>
       </c>
@@ -31615,7 +31616,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="86" t="e">
+      <c r="C54" s="57" t="e">
         <f>ABS((100*C52/C51))</f>
         <v>#VALUE!</v>
       </c>
@@ -31648,7 +31649,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="58">
         <v>1.6</v>
       </c>
       <c r="D55" s="49"/>
@@ -31680,7 +31681,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="59">
         <v>0.6</v>
       </c>
       <c r="D56" s="49"/>
@@ -31712,7 +31713,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="52" t="e">
+      <c r="C57" s="53" t="e">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>#VALUE!</v>
       </c>
@@ -31772,12 +31773,12 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="53"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="49"/>
-      <c r="E59" s="90"/>
+      <c r="E59" s="87"/>
       <c r="F59" s="49"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -31805,7 +31806,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="49"/>
@@ -32201,7 +32202,7 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="85" t="e">
+      <c r="C71" s="50" t="e">
         <f>AVERAGE(C61:D70)</f>
         <v>#DIV/0!</v>
       </c>
@@ -32267,10 +32268,10 @@
       <c r="A73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="53"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="49"/>
       <c r="E73" s="7"/>
       <c r="F73" s="3"/>
@@ -32300,7 +32301,7 @@
       <c r="B74" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="89"/>
+      <c r="C74" s="88"/>
       <c r="D74" s="49"/>
       <c r="E74" s="7"/>
       <c r="F74" s="3"/>
@@ -32330,7 +32331,7 @@
       <c r="B75" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="56"/>
+      <c r="C75" s="85"/>
       <c r="D75" s="49"/>
       <c r="E75" s="7"/>
       <c r="F75" s="3"/>
@@ -32360,7 +32361,7 @@
       <c r="B76" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="54" t="e">
+      <c r="C76" s="55" t="e">
         <f>C75*C10</f>
         <v>#VALUE!</v>
       </c>
@@ -32393,7 +32394,7 @@
       <c r="B77" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="54" t="e">
+      <c r="C77" s="55" t="e">
         <f>ABS(E70-C76)/10</f>
         <v>#VALUE!</v>
       </c>
@@ -32425,10 +32426,10 @@
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="53"/>
+      <c r="C78" s="54"/>
       <c r="D78" s="49"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -32458,7 +32459,7 @@
       <c r="B79" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="54" t="e">
+      <c r="C79" s="55" t="e">
         <f>F71</f>
         <v>#VALUE!</v>
       </c>
@@ -32491,7 +32492,7 @@
       <c r="B80" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="54" t="e">
+      <c r="C80" s="55" t="e">
         <f>STDEV(F61:F70)</f>
         <v>#VALUE!</v>
       </c>
@@ -32524,7 +32525,7 @@
       <c r="B81" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="55" t="e">
+      <c r="C81" s="56" t="e">
         <f>ABS((100*(C79-E59)/E59))</f>
         <v>#VALUE!</v>
       </c>
@@ -32557,7 +32558,7 @@
       <c r="B82" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="55" t="e">
+      <c r="C82" s="56" t="e">
         <f>ABS((100*C80/C79))</f>
         <v>#VALUE!</v>
       </c>
@@ -32590,7 +32591,7 @@
       <c r="B83" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="50">
+      <c r="C83" s="58">
         <v>8</v>
       </c>
       <c r="D83" s="49"/>
@@ -32622,7 +32623,7 @@
       <c r="B84" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C84" s="59">
         <v>3</v>
       </c>
       <c r="D84" s="49"/>
@@ -32654,7 +32655,7 @@
       <c r="B85" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="52" t="e">
+      <c r="C85" s="53" t="e">
         <f>IF(AND(C82&lt;=C84,C81&lt;=C83),"PASS","FAIL")</f>
         <v>#VALUE!</v>
       </c>
@@ -32714,15 +32715,15 @@
       <c r="A87" s="10">
         <v>8</v>
       </c>
-      <c r="B87" s="84" t="s">
+      <c r="B87" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="78" t="s">
+      <c r="C87" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="73"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="63"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -32746,11 +32747,11 @@
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
-      <c r="B88" s="82"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="75"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="52"/>
+      <c r="F88" s="65"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -32774,11 +32775,11 @@
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
-      <c r="B89" s="83"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="62"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="77"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="68"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -32829,15 +32830,15 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="52" t="s">
+      <c r="A91" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="53"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="49"/>
       <c r="D91" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="80" t="s">
+      <c r="E91" s="60" t="s">
         <v>48</v>
       </c>
       <c r="F91" s="49"/>
@@ -32863,18 +32864,18 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="79"/>
-      <c r="C92" s="73"/>
-      <c r="D92" s="81" t="s">
+      <c r="B92" s="62"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="72" t="s">
+      <c r="E92" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="F92" s="73"/>
+      <c r="F92" s="63"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -32897,12 +32898,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="74"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="75"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="65"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -32925,12 +32926,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="74"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="75"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="65"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -32953,12 +32954,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="74"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="75"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="75"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="70"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="65"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -32981,12 +32982,12 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="74"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="75"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="75"/>
+      <c r="A96" s="64"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="65"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -33009,12 +33010,12 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="74"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="75"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="65"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="65"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -33037,12 +33038,12 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="74"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="74"/>
-      <c r="F98" s="75"/>
+      <c r="A98" s="64"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="65"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -33065,12 +33066,12 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="74"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="75"/>
+      <c r="A99" s="64"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="65"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -33093,12 +33094,12 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="76"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="83"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="77"/>
+      <c r="A100" s="66"/>
+      <c r="B100" s="67"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="68"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -58322,41 +58323,55 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A92:C100"/>
     <mergeCell ref="D92:D100"/>
     <mergeCell ref="E92:F100"/>
@@ -58367,55 +58382,41 @@
     <mergeCell ref="C87:F89"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59719,7 +59720,7 @@
       <c r="B16" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="43"/>
       <c r="E16" s="44" t="s">
         <v>69</v>
@@ -59734,7 +59735,7 @@
       <c r="B18" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="43"/>
       <c r="E18" s="44" t="s">
         <v>69</v>
@@ -59749,7 +59750,7 @@
       <c r="B20" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="60"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="46"/>
       <c r="E20" s="41" t="s">
         <v>72</v>
@@ -59759,14 +59760,14 @@
       <c r="B21" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="60"/>
+      <c r="C21" s="52"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="47" t="e">
         <f>D16/D18*D20</f>
         <v>#DIV/0!</v>
@@ -59779,13 +59780,13 @@
       <c r="B24" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="60"/>
+      <c r="C24" s="52"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="52"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
